--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2221.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2221.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8941700181830293</v>
+        <v>0.9508527517318726</v>
       </c>
       <c r="B1">
-        <v>1.151563848989917</v>
+        <v>2.053400039672852</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>7.779109477996826</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.632189989089966</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>0.8011994361877441</v>
       </c>
     </row>
   </sheetData>
